--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3411.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3411.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.437103614994101</v>
+        <v>1.672619938850403</v>
       </c>
       <c r="B1">
-        <v>2.020471012422125</v>
+        <v>4.89542818069458</v>
       </c>
       <c r="C1">
-        <v>3.683765791958097</v>
+        <v>3.560811758041382</v>
       </c>
       <c r="D1">
-        <v>4.97815460206977</v>
+        <v>1.693607211112976</v>
       </c>
       <c r="E1">
-        <v>0.9518517036057956</v>
+        <v>1.026601195335388</v>
       </c>
     </row>
   </sheetData>
